--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.613000000000001</v>
+        <v>8.650100000000004</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.7949</v>
+        <v>-21.74649999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.341799999999993</v>
+        <v>-7.281799999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.404400000000002</v>
+        <v>-7.337300000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.80489999999999</v>
+        <v>-21.81279999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.81379999999998</v>
+        <v>-21.90249999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.838999999999998</v>
+        <v>7.014099999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.15549999999999</v>
+        <v>-20.25399999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.84219999999999</v>
+        <v>-20.73259999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,13 +839,13 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.863199999999996</v>
+        <v>6.393099999999997</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.466800000000002</v>
+        <v>-7.728299999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.79329999999999</v>
+        <v>-21.64269999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5.406899999999999</v>
+        <v>5.4663</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.319799999999994</v>
+        <v>-8.538899999999996</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.95229999999996</v>
+        <v>-21.09369999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.901200000000002</v>
+        <v>5.732000000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.84649999999998</v>
+        <v>-20.92229999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.003699999999998</v>
+        <v>6.470499999999999</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.903899999999996</v>
+        <v>6.1164</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.521200000000004</v>
+        <v>9.493400000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.31629999999998</v>
+        <v>-19.4657</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.833899999999995</v>
+        <v>-8.277299999999995</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.979199999999992</v>
+        <v>10.236</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.7044</v>
+        <v>5.743700000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.133600000000001</v>
+        <v>-8.132800000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.922900000000003</v>
+        <v>5.800200000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.554699999999998</v>
+        <v>5.795800000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.1615</v>
+        <v>-22.0298</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.988</v>
+        <v>-6.089200000000002</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.283799999999998</v>
+        <v>6.517799999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,13 +1383,13 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.5063</v>
+        <v>5.396199999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.9747</v>
+        <v>-7.8381</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.28940000000001</v>
+        <v>-22.1769</v>
       </c>
       <c r="B57" t="n">
-        <v>4.813599999999997</v>
+        <v>4.944299999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.571500000000006</v>
+        <v>-8.306200000000004</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.1892</v>
+        <v>-8.116099999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.3994</v>
+        <v>-22.4696</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.227999999999996</v>
+        <v>5.667699999999999</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.636699999999996</v>
+        <v>-7.904399999999997</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.021600000000005</v>
+        <v>-7.927400000000003</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.202599999999997</v>
+        <v>-8.165299999999995</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.86499999999998</v>
+        <v>-21.78279999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5535</v>
+        <v>-21.59009999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.247199999999995</v>
+        <v>-7.238899999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.4363</v>
+        <v>-7.326400000000008</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.657399999999999</v>
+        <v>8.589799999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.863799999999994</v>
+        <v>9.762199999999993</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.55270000000001</v>
+        <v>-20.4516</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8275</v>
+        <v>-21.7993</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.940400000000002</v>
+        <v>-7.7933</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,13 +1944,13 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.778499999999992</v>
+        <v>4.85489999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.576400000000001</v>
+        <v>-5.648500000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.5575</v>
+        <v>5.935000000000002</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.45200000000002</v>
+        <v>-21.40080000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.024699999999995</v>
+        <v>4.944099999999992</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.96649999999998</v>
+        <v>-21.13979999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.501200000000001</v>
+        <v>-8.510500000000002</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.90029999999999</v>
+        <v>-21.71919999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.056800000000003</v>
+        <v>-8.1897</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.844999999999998</v>
+        <v>-7.664299999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
